--- a/DataSheet/DataSheet_Sample_Selenium.xlsx
+++ b/DataSheet/DataSheet_Sample_Selenium.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36EA82-923B-417E-A965-7EB962303385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE8DF60-D010-40B4-A4FA-3D56E17C4863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4392" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>WebBrowser</t>
   </si>
@@ -34,10 +34,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>homeacc0118@gmail.com</t>
-  </si>
-  <si>
-    <t>sidniki118</t>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/DataSheet_Sample_Selenium.xlsx
+++ b/DataSheet/DataSheet_Sample_Selenium.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE8DF60-D010-40B4-A4FA-3D56E17C4863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297DAB1-0D80-48AA-A206-D10CCB047B9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4392" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>WebBrowser</t>
   </si>
@@ -34,17 +34,28 @@
     <t>Password</t>
   </si>
   <si>
-    <t>***</t>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>****</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +78,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,7 +370,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,14 +393,17 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="homeacc0118@gmail.com" xr:uid="{EA98A431-CB74-44DC-BB38-A516981B9D09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>